--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -540,40 +540,40 @@
         <v>5.034312</v>
       </c>
       <c r="I2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>7.082037424512</v>
+        <v>6.297819150816</v>
       </c>
       <c r="R2">
-        <v>63.738336820608</v>
+        <v>56.68037235734399</v>
       </c>
       <c r="S2">
-        <v>0.3716276754299814</v>
+        <v>0.5234401701313929</v>
       </c>
       <c r="T2">
-        <v>0.3716276754299814</v>
+        <v>0.5234401701313929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.034312</v>
       </c>
       <c r="I3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
         <v>2.175574015224</v>
@@ -632,10 +632,10 @@
         <v>19.580166137016</v>
       </c>
       <c r="S3">
-        <v>0.1141625588146729</v>
+        <v>0.1808217742350918</v>
       </c>
       <c r="T3">
-        <v>0.1141625588146729</v>
+        <v>0.1808217742350918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.034312</v>
       </c>
       <c r="I4">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J4">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>1.251016463376</v>
+        <v>0.7129648591200001</v>
       </c>
       <c r="R4">
-        <v>11.259148170384</v>
+        <v>6.41668373208</v>
       </c>
       <c r="S4">
-        <v>0.06564669350657872</v>
+        <v>0.05925772687631449</v>
       </c>
       <c r="T4">
-        <v>0.06564669350657872</v>
+        <v>0.0592577268763145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H5">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>5.760841004744889</v>
+        <v>1.950585426062667</v>
       </c>
       <c r="R5">
-        <v>51.847569042704</v>
+        <v>17.555268834564</v>
       </c>
       <c r="S5">
-        <v>0.302298310893575</v>
+        <v>0.1621219572717909</v>
       </c>
       <c r="T5">
-        <v>0.302298310893575</v>
+        <v>0.1621219572717909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H6">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I6">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J6">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>1.769707676548111</v>
+        <v>0.6738273783023333</v>
       </c>
       <c r="R6">
-        <v>15.927369088933</v>
+        <v>6.064446404721001</v>
       </c>
       <c r="S6">
-        <v>0.09286485097492773</v>
+        <v>0.05600483422774435</v>
       </c>
       <c r="T6">
-        <v>0.09286485097492775</v>
+        <v>0.05600483422774437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H7">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I7">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J7">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>1.017631863238</v>
+        <v>0.2208222926366667</v>
       </c>
       <c r="R7">
-        <v>9.158686769142001</v>
+        <v>1.98740063373</v>
       </c>
       <c r="S7">
-        <v>0.05339991038026431</v>
+        <v>0.01835353725766554</v>
       </c>
       <c r="T7">
-        <v>0.05339991038026431</v>
+        <v>0.01835353725766555</v>
       </c>
     </row>
   </sheetData>
